--- a/TF_DataMapping/PARTY_DTLS.xlsx
+++ b/TF_DataMapping/PARTY_DTLS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TF_DataMapping\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\trade_finance\TF_DataMapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE413D7D-B071-4183-9977-81E28EB65FBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E95A2948-BA39-4804-93CC-620F33483DD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="91">
   <si>
     <t>ADDR_TYP</t>
   </si>
@@ -187,9 +187,6 @@
     <t xml:space="preserve">        </t>
   </si>
   <si>
-    <t xml:space="preserve">address type                     </t>
-  </si>
-  <si>
     <t>Name &amp; address</t>
   </si>
   <si>
@@ -223,27 +220,12 @@
     <t>transfer method(refere to D1PF)</t>
   </si>
   <si>
-    <t>telex answer back</t>
-  </si>
-  <si>
     <t>customer(GFPF)</t>
   </si>
   <si>
-    <t>party type</t>
-  </si>
-  <si>
     <t>party role(refere to PTY_ROL)</t>
   </si>
   <si>
-    <t>reference</t>
-  </si>
-  <si>
-    <t>liability amount</t>
-  </si>
-  <si>
-    <t>liability percent amount</t>
-  </si>
-  <si>
     <t>amount or percent</t>
   </si>
   <si>
@@ -256,15 +238,6 @@
     <t>swift addres</t>
   </si>
   <si>
-    <t>shared liability</t>
-  </si>
-  <si>
-    <t>total outstanding libility amount</t>
-  </si>
-  <si>
-    <t>liability cuurency(refere to C8PF)</t>
-  </si>
-  <si>
     <t>liability currency(refere to C8PF)</t>
   </si>
   <si>
@@ -287,6 +260,39 @@
   </si>
   <si>
     <t>Null</t>
+  </si>
+  <si>
+    <t xml:space="preserve">address type (NULL)                </t>
+  </si>
+  <si>
+    <t>Answer back</t>
+  </si>
+  <si>
+    <t>party type(C:customer, S:correspondant, B:bank)</t>
+  </si>
+  <si>
+    <t>their reference</t>
+  </si>
+  <si>
+    <t>liability amount(NULL)</t>
+  </si>
+  <si>
+    <t>liability percent amount(NUL)</t>
+  </si>
+  <si>
+    <t>shared liability(NULL)</t>
+  </si>
+  <si>
+    <t>total outstanding libility amount(NULL)</t>
+  </si>
+  <si>
+    <t>liability cuurency(NULL)(refere to C8PF)</t>
+  </si>
+  <si>
+    <t>interrest currency</t>
+  </si>
+  <si>
+    <t>principle currency.</t>
   </si>
 </sst>
 </file>
@@ -304,12 +310,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -643,14 +651,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AX50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.140625" customWidth="1"/>
-    <col min="2" max="2" width="37.5703125" customWidth="1"/>
+    <col min="2" max="2" width="44.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.25">
@@ -658,7 +666,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>51</v>
@@ -746,7 +754,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.25">
@@ -754,7 +762,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.25">
@@ -762,7 +770,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.25">
@@ -770,7 +778,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.25">
@@ -778,7 +786,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.25">
@@ -786,7 +794,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.25">
@@ -794,7 +802,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.25">
@@ -802,7 +810,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.25">
@@ -810,7 +818,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.25">
@@ -818,7 +826,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:50" x14ac:dyDescent="0.25">
@@ -826,7 +834,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:50" x14ac:dyDescent="0.25">
@@ -834,7 +842,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:50" x14ac:dyDescent="0.25">
@@ -842,7 +850,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:50" x14ac:dyDescent="0.25">
@@ -850,7 +858,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:50" x14ac:dyDescent="0.25">
@@ -863,7 +871,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -871,7 +879,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -884,7 +892,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -892,7 +900,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -900,7 +908,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -908,7 +916,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -916,7 +924,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -924,7 +932,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -932,7 +940,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -940,7 +948,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -948,7 +956,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -956,7 +964,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -964,7 +972,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -972,7 +980,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -980,7 +988,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -988,7 +996,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -996,7 +1004,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -1004,7 +1012,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -1012,7 +1020,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -1020,7 +1028,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -1028,7 +1036,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -1036,7 +1044,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -1044,7 +1052,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -1057,7 +1065,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -1065,7 +1073,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -1078,7 +1086,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -1090,18 +1098,24 @@
       <c r="A47" s="3" t="s">
         <v>46</v>
       </c>
+      <c r="B47" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>47</v>
       </c>
+      <c r="B48" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -1109,7 +1123,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/TF_DataMapping/PARTY_DTLS.xlsx
+++ b/TF_DataMapping/PARTY_DTLS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\trade_finance\TF_DataMapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E95A2948-BA39-4804-93CC-620F33483DD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C96A18BF-869C-4505-A7BC-39812CA225D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -651,8 +651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AX50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
